--- a/biology/Botanique/Parc_Westmount/Parc_Westmount.xlsx
+++ b/biology/Botanique/Parc_Westmount/Parc_Westmount.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Westmount est un parc urbain de Westmount, situé sur la rue Sherbrooke ouest, sur l'île de Montréal. On le retrouve sur le flanc ouest du Mont Royal.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1892, la ville de Westmount achète 20 acres de terre pour faire un parc et ainsi préserver son aspect rustique. Quelques années plus tard, ce  parc est agrandi et on repoussa ses frontières de la rue Sherbrooke au boulevard de Maisonneuve (alors l’avenue Western). Depuis, il s’étend sur 26 acres. 
 En 1899, on y construit une bibliothèque municipale (Victoria Hall), une première au Québec.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc contient une pataugeoire, une aire de jeux aménagée, de belles plantations florales, trois terrains de baseball, un vaste terrain de jeux et des courts de tennis à surfaces dures et en terre battue. Un cours d'eau serpente entre les vieux saules et les bancs installés à l'ombre.
 Au coin sud-ouest du parc se trouvent l'aréna et la piscine municipaux alors que la bibliothèque et le Victoria Hall sont situés au coin nord-ouest.
@@ -579,7 +595,9 @@
           <t>Activités et attraits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Serres
 Bibliothèque publique de Westmount, première bibliothèque municipale du Québec (créée en 1899)</t>
@@ -610,7 +628,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Site web de la Ville de Westmount</t>
         </is>
